--- a/backend/income_data.xlsx
+++ b/backend/income_data.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Incomes" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -55,10 +56,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,14 +440,147 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>incomeItems</t>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[OrderedDict([('name', 'чысвяс'), ('value', '20.00'), ('type', 'income')])]</t>
+          <t>в</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>в</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>11111.00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>в</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>в</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>11111</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>в</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>в</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>11111.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>в</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11111.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>в</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>11111.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>в</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>11111.00</t>
         </is>
       </c>
     </row>
